--- a/analysis_output/mediation_analysis.xlsx
+++ b/analysis_output/mediation_analysis.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4429940485822677</v>
+        <v>-0.3930257200655047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1519453281989192</v>
+        <v>0.1465453386822315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004578108953141868</v>
+        <v>0.008757824312620524</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7452617096385845</v>
+        <v>-0.6843004488585831</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1407263875259508</v>
+        <v>-0.1017509912724263</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5037920945442028</v>
+        <v>0.5058626820182867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07009150850789399</v>
+        <v>0.06755561790893917</v>
       </c>
       <c r="D3" t="n">
-        <v>2.768849050252854e-10</v>
+        <v>5.36522182074112e-11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3643577559717533</v>
+        <v>0.3715885763946122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6432264331166523</v>
+        <v>0.640136787641961</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03959221101461742</v>
+        <v>-0.01360658896060151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.129278438182731</v>
+        <v>0.1232051502995288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7601864865057452</v>
+        <v>0.9123160068126703</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2967682071291574</v>
+        <v>-0.2584901660303711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2175837850999225</v>
+        <v>0.2312769881091681</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -558,23 +558,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2026149031630399</v>
+        <v>0.2005228879382159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1046994626820511</v>
+        <v>0.09820222365217117</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05645512480215178</v>
+        <v>0.04422159303169759</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.005704185808723616</v>
+        <v>0.005303328411330299</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4109339921348034</v>
+        <v>0.3957424474651016</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2422071141776573</v>
+        <v>-0.2141294768988164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07975314592434198</v>
+        <v>0.07379528984726182</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4166215164233874</v>
+        <v>-0.3763093020778983</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1049743041742441</v>
+        <v>-0.0839923724484373</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
